--- a/201025_Results_Cali/output/m2/21102025_mod2_by_ses.xlsx
+++ b/201025_Results_Cali/output/m2/21102025_mod2_by_ses.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1637,17 +1637,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>61 (67.8%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>141 (90.4%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>160 (85.6%)</t>
         </is>
       </c>
       <c r="G37">
@@ -1702,22 +1702,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>61 (67.8%)</t>
+          <t>3 (3.3%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>140 (89.7%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>160 (85.6%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="G39">
@@ -1727,36 +1727,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_auto_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de automóviles (agregado)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3 (3.3%)</t>
+          <t>8 (8.9%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>23 (14.7%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>18 (9.6%)</t>
         </is>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="41">
@@ -1772,26 +1772,26 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8 (8.9%)</t>
+          <t>6 (6.7%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>23 (14.8%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>18 (9.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="42">
@@ -1807,17 +1807,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6 (6.7%)</t>
+          <t>3 (3.3%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6 (3.9%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="G42">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="43">
@@ -1842,26 +1842,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>Eléctrica / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3 (3.3%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7 (4.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="44">
@@ -1877,26 +1877,26 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eléctrica / No aplica</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>64 (71.1%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>104 (66.7%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>129 (69.0%)</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="45">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="G45">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="46">
@@ -1957,16 +1957,16 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13 (8.4%)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>20 (10.8%)</t>
+          <t>20 (10.7%)</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="47">
@@ -1982,93 +1982,93 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>64 (71.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>103 (66.5%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>127 (68.6%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.5129</v>
+        <v>0.5119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_camion_agregado</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de camiones (futuro)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>90 (100.0%)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>156 (100.0%)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4 (2.2%)</t>
-        </is>
-      </c>
-      <c r="G48">
-        <v>0.5129</v>
+          <t>187 (100.0%)</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>modelo_vehiculo_agregado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Modelo del vehículo (agrupado)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2005 - 2010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>90 (100.0%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>156 (100.0%)</t>
+          <t>8 (5.1%)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>187 (100.0%)</t>
-        </is>
+          <t>5 (2.7%)</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>0.0607</v>
       </c>
     </row>
     <row r="50">
@@ -2084,22 +2084,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2005 - 2010</t>
+          <t>2011 - 2015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>14 (15.6%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8 (5.1%)</t>
+          <t>9 (5.8%)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>13 (7.0%)</t>
         </is>
       </c>
       <c r="G50">
@@ -2119,22 +2119,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2011 - 2015</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14 (15.6%)</t>
+          <t>17 (18.9%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9 (5.8%)</t>
+          <t>14 (9.0%)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>13 (7.0%)</t>
+          <t>24 (12.8%)</t>
         </is>
       </c>
       <c r="G51">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2021 o más reciente</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2164,12 +2164,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14 (9.0%)</t>
+          <t>29 (18.6%)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>24 (12.8%)</t>
+          <t>29 (15.5%)</t>
         </is>
       </c>
       <c r="G52">
@@ -2189,22 +2189,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021 o más reciente</t>
+          <t>Anterior a 2005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17 (18.9%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>29 (18.6%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>29 (15.5%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="G53">
@@ -2224,22 +2224,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anterior a 2005</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>35 (38.9%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>88 (56.4%)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>102 (54.5%)</t>
         </is>
       </c>
       <c r="G54">
@@ -2259,22 +2259,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>35 (38.9%)</t>
+          <t>4 (4.4%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>88 (56.4%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>102 (54.5%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="G55">
@@ -2284,36 +2284,36 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>modelo_vehiculo_agregado</t>
+          <t>p19comuna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modelo del vehículo (agrupado)</t>
+          <t>Comuna donde vive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Comuna 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4 (4.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>10 (6.4%)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.0607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comuna 1</t>
+          <t>Comuna 10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2339,12 +2339,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10 (6.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>20 (10.7%)</t>
         </is>
       </c>
       <c r="G57">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Comuna 10</t>
+          <t>Comuna 11</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2374,12 +2374,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>20 (10.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="G58">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comuna 11</t>
+          <t>Comuna 12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="G59">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Comuna 12</t>
+          <t>Comuna 13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2444,12 +2444,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="G60">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Comuna 13</t>
+          <t>Comuna 14</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>17 (10.9%)</t>
+          <t>20 (12.8%)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G61">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Comuna 14</t>
+          <t>Comuna 15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20 (12.8%)</t>
+          <t>16 (10.3%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="G62">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Comuna 15</t>
+          <t>Comuna 16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>16 (10.3%)</t>
+          <t>12 (7.7%)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="G63">
@@ -2574,22 +2574,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Comuna 16</t>
+          <t>Comuna 17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>31 (34.4%)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>0 (0.0%)</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>12 (7.7%)</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>23 (12.3%)</t>
         </is>
       </c>
       <c r="G64">
@@ -2609,22 +2609,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Comuna 17</t>
+          <t>Comuna 18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>31 (34.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>23 (12.3%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="G65">
@@ -2644,22 +2644,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Comuna 18</t>
+          <t>Comuna 19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>17 (18.9%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13 (8.3%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>19 (10.2%)</t>
         </is>
       </c>
       <c r="G66">
@@ -2679,12 +2679,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Comuna 19</t>
+          <t>Comuna 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>17 (18.9%)</t>
+          <t>28 (31.1%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>19 (10.2%)</t>
+          <t>14 (7.5%)</t>
         </is>
       </c>
       <c r="G67">
@@ -2714,22 +2714,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Comuna 2</t>
+          <t>Comuna 20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>28 (31.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>9 (5.8%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>14 (7.5%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="G68">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comuna 20</t>
+          <t>Comuna 21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>9 (5.8%)</t>
+          <t>18 (11.5%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G69">
@@ -2784,17 +2784,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comuna 21</t>
+          <t>Comuna 22</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>12 (13.3%)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>0 (0.0%)</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>18 (11.5%)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2819,22 +2819,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Comuna 22</t>
+          <t>Comuna 3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12 (13.3%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="G71">
@@ -2854,22 +2854,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Comuna 3</t>
+          <t>Comuna 4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10 (5.3%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="G72">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comuna 4</t>
+          <t>Comuna 5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>24 (12.8%)</t>
         </is>
       </c>
       <c r="G73">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Comuna 5</t>
+          <t>Comuna 6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2934,12 +2934,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (10.3%)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>24 (12.8%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="G74">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Comuna 6</t>
+          <t>Comuna 7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>16 (10.3%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>9 (4.8%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="G75">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Comuna 7</t>
+          <t>Comuna 8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>12 (6.4%)</t>
         </is>
       </c>
       <c r="G76">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Comuna 8</t>
+          <t>Comuna 9</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3039,12 +3039,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>12 (6.4%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="G77">
@@ -3054,36 +3054,36 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p19comuna</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Comuna donde vive</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Comuna 9</t>
+          <t>Compras y trámites</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>12 (13.3%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>26 (13.9%)</t>
         </is>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>0.1836</v>
       </c>
     </row>
     <row r="79">
@@ -3099,22 +3099,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compras y trámites</t>
+          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12 (13.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>17 (10.9%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>26 (13.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="G79">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3144,7 +3144,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3169,22 +3169,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (5.6%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>11 (5.9%)</t>
         </is>
       </c>
       <c r="G81">
@@ -3204,22 +3204,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5 (5.6%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6 (3.8%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>11 (5.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="G82">
@@ -3239,22 +3239,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>14 (15.6%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>47 (30.1%)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>33 (17.6%)</t>
         </is>
       </c>
       <c r="G83">
@@ -3274,22 +3274,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>14 (15.6%)</t>
+          <t>57 (63.3%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>47 (30.1%)</t>
+          <t>78 (50.0%)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>33 (17.6%)</t>
+          <t>108 (57.8%)</t>
         </is>
       </c>
       <c r="G84">
@@ -3309,22 +3309,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>57 (63.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>78 (50.0%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>108 (57.8%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="G85">
@@ -3334,245 +3334,210 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p23_agregado</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Visitas sociales</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>41.5 (31.0–53.8)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4 (2.6%)</t>
+          <t>50.0 (31.8–60.0)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>43.0 (32.0–59.5)</t>
         </is>
       </c>
       <c r="G86">
-        <v>0.1836</v>
+        <v>0.1986</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>41.5 (31.0–53.8)</t>
+          <t>30.0 (20.0–60.0)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>50.0 (31.8–60.0)</t>
+          <t>25.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>43.0 (32.0–59.5)</t>
+          <t>30.0 (15.0–60.0)</t>
         </is>
       </c>
       <c r="G87">
-        <v>0.1986</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p18_p1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Minutos caminando hasta el modo de transporte</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>30.0 (20.0–60.0)</t>
+          <t>10.0 (8.5–15.0)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>25.0 (15.0–30.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="G88">
-        <v>0.0061</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p18_p2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Minutos de espera del transporte</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10.0 (8.5–15.0)</t>
+          <t>15.0 (10.0–27.5)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="G89">
-        <v>0.2439</v>
+        <v>0.4963</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p18_p3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>15.0 (10.0–27.5)</t>
+          <t>35.0 (21.2–82.5)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="G90">
-        <v>0.4963</v>
+        <v>0.9789</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p18_p4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>Minutos caminando después del descenso</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>35.0 (21.2–82.5)</t>
+          <t>5.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="G91">
-        <v>0.9789</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18_c1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>52.5 (33.8–71.2)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (15.0–72.5)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>15.0 (4.2–22.5)</t>
         </is>
       </c>
       <c r="G92">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>p18_c1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Minutos de la caminata a su destino</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>52.5 (33.8–71.2)</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>17.5 (15.0–72.5)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>15.0 (4.2–22.5)</t>
-        </is>
-      </c>
-      <c r="G93">
         <v>0.5782</v>
       </c>
     </row>
